--- a/src/main/resources/imoveis.xlsx
+++ b/src/main/resources/imoveis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nome</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Endereço</t>
+  </si>
+  <si>
+    <t>Tipo</t>
   </si>
 </sst>
 </file>
@@ -391,11 +394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1606"/>
+  <dimension ref="A1:L1606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,9 +413,10 @@
     <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33.42578125" customWidth="1"/>
     <col min="11" max="11" width="42.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,50 +450,53 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">

--- a/src/main/resources/imoveis.xlsx
+++ b/src/main/resources/imoveis.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="imoveis" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">imoveis!$A$1:$L$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -398,7 +401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5270,6 +5273,7 @@
       <c r="C1606" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
